--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577582.2578953676</v>
+        <v>-580094.666276733</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>188.1489909417879</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>279.9290008945214</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.1672032286201</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>49.82019484631854</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>5.546312764597241</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.8544819726761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>62.3295951301746</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>185.8942204765164</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.47046059858724</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>4.791624857390647</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.81275980261665</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>156.1362608035742</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>153.7665065845765</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.08837997181857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>84.72447871629582</v>
       </c>
     </row>
     <row r="17">
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>145.9348656155979</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>32.27552175740252</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>35.56815683447337</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>160.3783204776929</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>174.7683347992597</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>137.9385224935183</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>166.6594061764987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>251.1196674903453</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652626</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808201</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694472</v>
+        <v>1422.200456328344</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.60683175406</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>764.3411331473096</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4337,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758593</v>
+        <v>1808.800296392466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,28 +4395,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,13 +4428,13 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T4" t="n">
-        <v>678.8776925073157</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U4" t="n">
-        <v>678.8776925073157</v>
+        <v>218.3316393401815</v>
       </c>
       <c r="V4" t="n">
-        <v>424.1932043014289</v>
+        <v>218.3316393401815</v>
       </c>
       <c r="W4" t="n">
-        <v>424.1932043014289</v>
+        <v>218.3316393401815</v>
       </c>
       <c r="X4" t="n">
-        <v>424.1932043014289</v>
+        <v>218.3316393401815</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.4006251578988</v>
+        <v>212.7293032143257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1628.178203944122</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1628.178203944122</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1269.912505337372</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>884.1242527391273</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621928</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.470254646116</v>
+        <v>2014.778044008244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>733.1150659429163</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>478.4305777370295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>478.4305777370295</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>478.4305777370295</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.4305777370295</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218345</v>
@@ -4814,13 +4814,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.58875505237</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3320.765796500697</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3320.765796500697</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3067.235319774533</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180641</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4857,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218345</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218345</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218345</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="V10" t="n">
-        <v>765.5673021974011</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="W10" t="n">
-        <v>476.1501321604405</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="X10" t="n">
-        <v>248.1605812624231</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>639.3706644025399</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.9255961109956</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510505</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1653.302830625877</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611855</v>
+        <v>1363.885660588916</v>
       </c>
       <c r="X16" t="n">
-        <v>1061.366640084765</v>
+        <v>1135.896109690899</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.5740609412353</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>954.2476448606593</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>785.3114619327524</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5671,19 +5671,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279801</v>
@@ -5692,31 +5692,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487566</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831764</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625877</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588916</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690899</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.896109690899</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,13 +5838,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C22" t="n">
-        <v>733.4550657171301</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.10905366816</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>922.1728707402528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>772.0562313279171</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>624.143137745524</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1272.757518498399</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,31 +6953,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.6145409888043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1180.045135860591</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>952.0555849625741</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>731.263005819044</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7795,13 +7795,13 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177.1239008292197</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>102.0013691777403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.7287544298507</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.728754429865</v>
       </c>
     </row>
     <row r="5">
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.6212754172186</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>133.860174635799</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.680607402614442</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>148.7507642442421</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>113.047316183739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>65.33133491134421</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>7.482525529412982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5874149221291418</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>35.40333084624567</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1164822.559718555</v>
+        <v>1164822.559718554</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1164822.559718555</v>
+        <v>1164822.559718554</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758987</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26332,7 +26332,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.644899252</v>
@@ -26347,10 +26347,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26366,10 +26366,10 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073548</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363178</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27249.14345670406</v>
+        <v>27249.14345670383</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997312</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234868.185969791</v>
+        <v>-1235158.793134638</v>
       </c>
       <c r="C6" t="n">
-        <v>65307.89054044613</v>
+        <v>65307.89054044665</v>
       </c>
       <c r="D6" t="n">
-        <v>65307.89054044627</v>
+        <v>65307.89054044607</v>
       </c>
       <c r="E6" t="n">
-        <v>-179648.9867388897</v>
+        <v>-179683.7246643254</v>
       </c>
       <c r="F6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="G6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="H6" t="n">
-        <v>145763.4750684653</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="I6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430293</v>
       </c>
       <c r="J6" t="n">
-        <v>-71767.72732881222</v>
+        <v>-71802.465254248</v>
       </c>
       <c r="K6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="L6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430296</v>
       </c>
       <c r="M6" t="n">
-        <v>60708.44713295354</v>
+        <v>60673.70920751787</v>
       </c>
       <c r="N6" t="n">
-        <v>120819.2420883721</v>
+        <v>120819.2420883722</v>
       </c>
       <c r="O6" t="n">
-        <v>140246.960082004</v>
+        <v>140246.9600820037</v>
       </c>
       <c r="P6" t="n">
-        <v>140246.9600820037</v>
+        <v>140246.9600820039</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022931</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>105.5878116857007</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>43.30958615763257</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.87935969080445</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>344.5464506115368</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>100.3176177290964</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.2391947904499</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>104.3961369307852</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>291.4251788534369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>11.11056029505366</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>98.37113673925148</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28515,10 +28515,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28743,13 +28743,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31601,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353158</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597632</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609568</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010411</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
